--- a/medicine/Œil et vue/Braille/Braille.xlsx
+++ b/medicine/Œil et vue/Braille/Braille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le braille (prononcé en français : [bʁaj]) est un système d’écriture tactile à points saillants, à l’usage des personnes aveugles ou fortement malvoyantes. Le système porte le nom de son inventeur, le Français Louis Braille (1809-1852) qui avait perdu la vue à la suite d'un accident. Élève à l’Institution royale des jeunes aveugles, il modifie et perfectionne le code Barbier. En 1829 paraît le premier exposé de sa méthode.
@@ -515,13 +527,53 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">La lecture pour les aveugles avant Louis Braille
-Au XIVe siècle, le juriste musulman irakien Zayn Ud Dîn Al Âmidî qui était lui-même aveugle, imagina également un système pour que les aveugles puissent avoir accès aux livres à travers un mode de lecture particulier basé sur les noyaux de fruits[2].
+          <t>La lecture pour les aveugles avant Louis Braille</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au XIVe siècle, le juriste musulman irakien Zayn Ud Dîn Al Âmidî qui était lui-même aveugle, imagina également un système pour que les aveugles puissent avoir accès aux livres à travers un mode de lecture particulier basé sur les noyaux de fruits.
 Au XVIIe siècle, le jésuite italien Francesco Lana de Terzi imagina divers systèmes d’écriture codée pour aveugles. Il conçut notamment le système Lana, un procédé d’impression en relief sur du papier épais ainsi qu’un « système permettant aux aveugles d’écrire couramment en traçant seulement des lignes et en faisant des points ».
 Valentin Haüy, homme de lettres pratiquant outre le latin, le grec et l’hébreu, une dizaine de langues vivantes, s’intéresse d’abord en curieux au sort des personnes aveugles et, à la suite de Diderot, à leur « psychologie ». En 1771, choqué à la vue d’un triste spectacle mettant en scène des aveugles à la Foire Saint-Ovide, il se passionne pour l’éducation des aveugles et ambitionne de leur apprendre à lire. Dans cette intention, il fait réaliser des caractères spéciaux en relief et mobiles et, en 1784, entreprend avec succès d’instruire un jeune homme aveugle. C’est cette méthode, appelée « relief linéaire » qu’il fera appliquer dans l’institution des enfants aveugles, première école destinée aux aveugles.
 En 1808-1809, Charles Barbier de La Serre, ancien officier d’artillerie, invente un système appelé « écriture nocturne » destiné à permettre aux officiers de rédiger ou de lire, dans l’obscurité, des messages codés. Le principe de ce système connu également sous le nom de sonographie est de transcrire des sons (36) à l'aide de points en relief placés sur une grille de 2 × 6 points. Ce n’est qu’en 1819 que Barbier s’avise des avantages que les aveugles pourraient tirer de son système. Il conçoit alors un nouveau système à l’usage des aveugles qu’il présente en 1821 à l’Institution Royale des Jeunes Aveugles. Les élèves, dont Louis Braille alors âgé de 12 ans, se montrent immédiatement très intéressés par le système. Cependant, Louis Braille relève aussitôt les limites du système, notamment son incapacité à prendre en compte l’orthographe compte tenu de sa nature phonétique, et propose à Barbier d’apporter des améliorations. Barbier ne donne pas suite à cette proposition venant d’un enfant de 12 ans.
-Louis Braille
-Louis Braille n’est pas né aveugle, il l’est devenu à l’âge de trois ans. Après un début de scolarité dans son village de Coupvray, il est admis en 1819 à l’Institut royal des aveugles. Deux ans plus tard, en 1821, il assiste à la présentation de la sonographie faite par Barbier. Barbier n’ayant pas suivi sa proposition d’améliorer son système, Louis Braille entreprend seul ce travail. Il garde les bases du système de Barbier, notamment le principe d’un codage et l’utilisation de points saillants. Les principales caractéristiques du système élaboré par Braille sont :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Braille</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Braille</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Louis Braille</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis Braille n’est pas né aveugle, il l’est devenu à l’âge de trois ans. Après un début de scolarité dans son village de Coupvray, il est admis en 1819 à l’Institut royal des aveugles. Deux ans plus tard, en 1821, il assiste à la présentation de la sonographie faite par Barbier. Barbier n’ayant pas suivi sa proposition d’améliorer son système, Louis Braille entreprend seul ce travail. Il garde les bases du système de Barbier, notamment le principe d’un codage et l’utilisation de points saillants. Les principales caractéristiques du système élaboré par Braille sont :
 réduction de 12 à 6 du nombre de points utilisés ;
 codage de signes typographiques latins (lettres, ponctuation, notes de musique, etc.) plutôt que de sons.
 L’essentiel du système est élaboré en 1825 (Braille a alors 16 ans) et Braille publie son premier traité en 1829.
@@ -529,61 +581,350 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Braille</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Œil et vue/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Braille</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Braille</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Braille</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Le code braille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En braille standard, un caractère est représenté dans une matrice de six points sur deux colonnes, chaque caractère étant formé par un à six points en relief. Ces points sont conventionnellement numérotés de haut en bas et de gauche à droite, selon le schéma suivant :
 Par exemple, la lettre c se représente par les deux points supérieurs, soit la combinaison 1,4. Ce système permet de représenter jusqu’à 63 caractères (26-1), une matrice sans aucun point représentant une espace.
 La signification de chaque symbole dépend de la langue utilisée, ce qui explique pourquoi les braille japonais, coréen, cyrillique et autres diffèrent du braille français. Les langues utilisant l’alphabet latin emploient le plus souvent le même codage pour les lettres de base, mais les lettres accentuées, d’autres symboles et, parfois, les signes de ponctuation diffèrent.
-Lettres
-Cette représentation se comprend en répartissant les lettres en lignes de dix lettres dans l'ordre alphabétique, sauf la lettre W qui n'était pas encore pleinement reconnue dans l'alphabet français à l'époque de Louis Braille :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Braille</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Braille</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Le code braille</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Lettres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Cette représentation se comprend en répartissant les lettres en lignes de dix lettres dans l'ordre alphabétique, sauf la lettre W qui n'était pas encore pleinement reconnue dans l'alphabet français à l'époque de Louis Braille :
 a b c d e f g h i j : utilisent les quatre points supérieurs
 k l m n o p q r s t : ajout du point 3 (en bas à gauche) aux lettres de la première ligne
 u v x y z : ajout des points 3 et 6 (en bas à droite) aux cinq premières lettres de la première ligne
-w : ajout du point 6 à la lettre J (le w n’existait pas a l'époque de Louis Braille)
-Lettres diacritées propres au français
-L'alphabet braille français se comprend donc en répartissant les lettres en quatre lignes de dix lettres :
-Lettres diacritées et ligatures propres à diverses langues étrangères
-En utilisant les principes de codification à l’aide de la matrice à six points saillants, il est possible de représenter les lettres diacritées et ligatures propres à chaque langue étrangère.
-Chiffres
-Il existe deux systèmes pour représenter les chiffres en braille français : le système dit « Louis Braille », ou « littéraire », et le système « Antoine ».
-Chiffres « Louis Braille »
-C’est le système le plus ancien. Il est encore couramment utilisé dans les ouvrages de type littéraire (non mathématiques) et est la norme dans de nombreux pays (y compris au Québec). Il n'est pas ou peu présent dans les ouvrages en France mais est présent sur les chiffres des étages dans les ascenseurs.
+w : ajout du point 6 à la lettre J (le w n’existait pas a l'époque de Louis Braille)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Braille</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Braille</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Le code braille</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Lettres diacritées propres au français</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'alphabet braille français se comprend donc en répartissant les lettres en quatre lignes de dix lettres :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Braille</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Braille</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Le code braille</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Lettres diacritées et ligatures propres à diverses langues étrangères</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En utilisant les principes de codification à l’aide de la matrice à six points saillants, il est possible de représenter les lettres diacritées et ligatures propres à chaque langue étrangère.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Braille</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Braille</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Le code braille</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Chiffres</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe deux systèmes pour représenter les chiffres en braille français : le système dit « Louis Braille », ou « littéraire », et le système « Antoine ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Braille</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Braille</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Le code braille</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Chiffres</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Chiffres « Louis Braille »</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C’est le système le plus ancien. Il est encore couramment utilisé dans les ouvrages de type littéraire (non mathématiques) et est la norme dans de nombreux pays (y compris au Québec). Il n'est pas ou peu présent dans les ouvrages en France mais est présent sur les chiffres des étages dans les ascenseurs.
 Un chiffre est représenté par deux symboles. Le premier est le préfixe numérique constitué des points 3-4-5-6 ⠼.
 Le second est une lettre de la première série de a à j : a vaut 1, b vaut 2 et ainsi de suite ; i vaut 9 et j vaut 0.
-Chiffres « Antoine »
-Ce système fut introduit par Louis Antoine dans le cadre de la notation braille mathématique. C’est maintenant le système recommandé en France, même en dehors des expressions mathématiques, pour tous les ouvrages.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Braille</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Braille</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Le code braille</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Chiffres</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Chiffres « Antoine »</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce système fut introduit par Louis Antoine dans le cadre de la notation braille mathématique. C’est maintenant le système recommandé en France, même en dehors des expressions mathématiques, pour tous les ouvrages.
 Un chiffre est représenté par deux symboles. Le premier est le préfixe mathématique constitué du point 6 ⠠.
 Le second est une lettre de la quatrième série de â à œ, dérivée de la première série en y ajoutant le point 6: â vaut 1, ê vaut 2 et ainsi de suite jusqu'à œ valant 9. 0 est représenté par le préfixe numérique Louis Braille.
 En résumé, les deux systèmes se présentent comme suit:
 Dans les deux cas lorsqu’il y a plusieurs chiffres en succession, le préfixe n’est indiqué qu’une fois : tous les symboles qui suivent sont interprétés comme des chiffres, jusqu’à rencontrer un espace.
-Ponctuation
-Onze signes de ponctuation sont obtenus en décalant d'un cran vers le bas les lettres a à j, sauf le i (utilisé pour l'astérisque, comme indiqué plus loin), et en décalant de deux crans vers le bas les lettres a et c. C'est assez rare mais en France certains ouvrages sortis avant l'uniformisation du code braille utilisent le même symbole pour l'apostrophe et le point.
-Autres symboles
-Indicateurs et modificateurs propres au braille :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Braille</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Braille</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Le code braille</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Ponctuation</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Onze signes de ponctuation sont obtenus en décalant d'un cran vers le bas les lettres a à j, sauf le i (utilisé pour l'astérisque, comme indiqué plus loin), et en décalant de deux crans vers le bas les lettres a et c. C'est assez rare mais en France certains ouvrages sortis avant l'uniformisation du code braille utilisent le même symbole pour l'apostrophe et le point.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Braille</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Braille</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Le code braille</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Autres symboles</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Indicateurs et modificateurs propres au braille :
 Symboles typographiques simples :
 Symboles typographiques multiples ou symétriques:
 Symboles utilisant le modificateur 1 (devises, lettres grecques…) :
@@ -593,37 +934,42 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Braille</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Œil et vue/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Braille</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Braille</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Braille</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Dérivés du braille</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Braille abrégé
-Les caractères braille sont plus larges que leurs équivalents « noirs », et les pages plus épaisses. Cela a pour conséquence une augmentation importante du volume d’un document braille, de 30 à 50 fois celui du même document « noir »[3]. Aussi a-t-on créé une forme contractée : le braille abrégé. Grâce à l'utilisation de la totalité des 63 signes possibles en braille 6 points et à la réaffectation de ceux d'occurrence rare (comme le ü), il permet un gain de place estimé de 30% à 40%[4],[3],[5].
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Braille abrégé</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Les caractères braille sont plus larges que leurs équivalents « noirs », et les pages plus épaisses. Cela a pour conséquence une augmentation importante du volume d’un document braille, de 30 à 50 fois celui du même document « noir ». Aussi a-t-on créé une forme contractée : le braille abrégé. Grâce à l'utilisation de la totalité des 63 signes possibles en braille 6 points et à la réaffectation de ceux d'occurrence rare (comme le ü), il permet un gain de place estimé de 30% à 40%.
 C’est en 1880 que Maurice de La Sizeranne constitua l’Abrégé Orthographique Français, qui fut depuis complété par de nombreux partenaires.
 La norme actuellement en vigueur est l’Abrégé orthographique étendu de 1955.
-Dans un texte en braille abrégé, on trouve trois types de mots[6],[7],[8] :
+Dans un texte en braille abrégé, on trouve trois types de mots :
 des mots contenant une ou plusieurs contractions, appelées « assemblages »,
 des mots ayant une abréviations d'un ou plusieurs signes, appelées « symboles »,
 des mots écrits en intégral (braille classique).
@@ -640,9 +986,47 @@
 Les mots écrits en braille intégral (dans un texte en braille abrégé) sont soit :
 des mots n’ayant pas de symbole ou n’ayant pas de contraction entrant dans leur composition,
 des noms propres (jamais abrégés sauf en cas de noms de peuples),
-des noms que l’utilisation d’une contraction rendrait confus ou incompréhensibles.
-Assemblages et symboles d'un seul signe
-Dans chaque cellule du tableau ci-dessous est consigné, dans l'ordre « alphabétique » braille :
+des noms que l’utilisation d’une contraction rendrait confus ou incompréhensibles.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Braille</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Braille</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Dérivés du braille</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Braille abrégé</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Assemblages et symboles d'un seul signe</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Dans chaque cellule du tableau ci-dessous est consigné, dans l'ordre « alphabétique » braille :
 le signe braille,
 sa valeur de base,
 le symbole associé en gras (mot représenté par le signe employé seul),
@@ -672,13 +1056,90 @@
 Un mot ne peut consister en signes inférieurs seulement (signes utilisant les points 2356). Par ex.: « entrer » → en(tr)(er) et non pas (en)(tr)(er) ⠢⠴⠦.
 Un symbole inférieur précédé ou suivi d'un signe de ponctuation ne doit pas être utilisé. Par ex.: « été » → ⠶, mais « été, » → ⠿⠞⠿⠂.
 Il existe de nombreuses règles qui régissent le choix des assemblages lorsque plusieurs combinaisons sont possibles. Par ex.: (es)saim mais me(ss)e, v(ien)t mais (ou)(bl)i(ent), ma(in) et non pas m(ai)n, r(en)d et non pas (re)nd mais (re)ste...
-Il est interdit d'utiliser le même signe deux fois de suite avec des valeurs différentes. Par ex.: « drôle » → drôle  ⠙⠗⠹⠇⠑ et non pas (dr)ôle ⠹⠹⠇⠑.
-Finales à plusieurs signes
-Elles sont au nombre de 7 :
+Il est interdit d'utiliser le même signe deux fois de suite avec des valeurs différentes. Par ex.: « drôle » → drôle  ⠙⠗⠹⠇⠑ et non pas (dr)ôle ⠹⠹⠇⠑.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Braille</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Braille</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Dérivés du braille</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Braille abrégé</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Finales à plusieurs signes</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elles sont au nombre de 7 :
 Ces finales ne peuvent pas créer d'assemblage avec les lettres précédentes. Par ex: « battement » → battm, et non pas ba(tt)m en utilisant l'assemblage tt.
 Elles peuvent prendre un « s » au pluriel.
-Symboles à plusieurs signes
-Il existe 399 symboles de base, de deux signes rarement trois.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Braille</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Braille</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Dérivés du braille</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Braille abrégé</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Symboles à plusieurs signes</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe 399 symboles de base, de deux signes rarement trois.
 Parmi ces symboles, 185 peuvent produire des dérivés par l'adjonction d'un ou plusieurs suffixes parmi une liste de 18 (m « -ment », c « -ance/ence », f « -if », (bl) « -able »…), créant 420 symboles supplémentaires.
 Les signes employés dans les symboles peuvent être des signes de base ou des assemblages. Dans ce dernier cas, les contraintes positionnelles ne s'appliquent pas.
 Quelques exemples:
@@ -692,11 +1153,89 @@
 Comme à la section précédente, seule l'orthographe compte et non la prononciation ou le sens. Par exemple : fs « fils » ( « enfant mâle » ou pluriel de « fil »), so « sorte » (« espèce » ou subjonctif de « sortir »), s(om)s (« nous sommes » ou pluriel de « somme »).
 On ne peut pas créer de nouveaux symboles de base ou dérivés. Par exemple, le symbole q(ion) « question » existe, mais pas le symbole dérivé *q(ion)m « questionnement », alors que les symboles f(ion) « fonction »  / f(ion)m « fonctionnement » existent. On ne peut pas utiliser les 18 suffixes ailleurs que dans les 420 symboles dérivés listés. Par exemple, on ne peut pas abréger « visage » en *visg comme « outrage » peut l'être en (ou)(tr)g.
 Il est par contre possible de faire précéder les symboles d'autres signes, abrégeant des mots plus longs. Par exemple: dm « demain » / l(en)dm « lendemain », m(ion) « mission » / ém(ion) « émission » / (re)(trans)m(ion) « retransmission». Mais le sens ne doit pas s'en écarter. Par exemple, on ne peut pas construire « espère » sur le symbole pè « père ».
-Locutions
-Il existe enfin 43 locutions abrégées. Une locution est un groupe de plusieurs mots représenté par deux ou plusieurs signes reliés entre eux. Si la locution comporte une apostrophe ou un trait d'union, ces signes sont conservés. Si c'est un espace, c'est le signe ⠸ (l'indicateur de mise en italique) qui est employé. Les signes peuvent être des signes de base ou des assemblages.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Braille</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Braille</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Dérivés du braille</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Braille abrégé</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Locutions</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe enfin 43 locutions abrégées. Une locution est un groupe de plusieurs mots représenté par deux ou plusieurs signes reliés entre eux. Si la locution comporte une apostrophe ou un trait d'union, ces signes sont conservés. Si c'est un espace, c'est le signe ⠸ (l'indicateur de mise en italique) qui est employé. Les signes peuvent être des signes de base ou des assemblages.
 Par exemple : à|c ⠷⠸⠉ « à cause », (au)'h ⠅⠄⠓ « aujourd'hui », (au)-d ⠅⠤⠙ « au-dessus », (au)-(ou) ⠅⠤⠳ « au-dessous », c'e-à-d ⠉⠄⠑⠤⠷⠤⠙ « c'est-à-dire »...
-Ambiguïtés
-Le code abrégé comporte de nombreuses ambiguïtés, qui nuisent à l'opération d'abrègement et de désabregement automatisés. Souvent, seule la connaissance des mots acceptables en français permet de lever l'ambiguïté. Par exemple :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Braille</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Braille</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Dérivés du braille</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Braille abrégé</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Ambiguïtés</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le code abrégé comporte de nombreuses ambiguïtés, qui nuisent à l'opération d'abrègement et de désabregement automatisés. Souvent, seule la connaissance des mots acceptables en français permet de lever l'ambiguïté. Par exemple :
 assemblage vs valeur de base : ⠙⠊⠅⠞⠁⠞ = « diktat » parce que le mot « diautat » n'existe pas.
 assemblage vs ponctuation : ⠍⠕⠽⠢ = « moyen » parce que « moy ? » n'existe pas.
 assemblage vs symbole : « des » ne s'abrège pas en d(es) ⠙⠱ (qui est en fait le mot « dû »), mais en le symbole de deux signes ds ⠙⠎.
@@ -706,8 +1245,43 @@
 assemblage vs ponctuation : Paris. = « Paris. » et « Parisien ».
 assemblage vs locution : p|s ⠏⠸⠎ peut être soit l'assemblage « pelles » ou la locution « par suite ».
 Pour lever une ambiguïté, il est possible d'utiliser l'indicateur de valeur de base (points 5-6) en début de mot, qui permet de passer en intégral pour ce mot. Par ex: ⠰⠁⠸⠹⠹ « allô », et non pas « allant ».
-Braille informatique
-Le braille standard, avec ses six points, ne permet que 64 combinaisons pour coder les caractères, ce qui est relativement peu. Certains caractères, comme les majuscules ou les chiffres ont été codés sur deux caractères braille afin de contourner cette limitation. Malheureusement, ce type de codage s’avère mal adapté à l’informatisation. Aussi pour l’informatique utilise-t-on un braille à huit points au lieu de six.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Braille</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Braille</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Dérivés du braille</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Braille informatique</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le braille standard, avec ses six points, ne permet que 64 combinaisons pour coder les caractères, ce qui est relativement peu. Certains caractères, comme les majuscules ou les chiffres ont été codés sur deux caractères braille afin de contourner cette limitation. Malheureusement, ce type de codage s’avère mal adapté à l’informatisation. Aussi pour l’informatique utilise-t-on un braille à huit points au lieu de six.
 Les deux points supplémentaires sont placés en dessous de la cellule braille classique. Le point 7 sous le point 3 et le point 8 sous le point 6.
 Ainsi, le braille informatique permet 256 combinaisons (2 puissance 8), soit une correspondance exacte avec la table ASCII utilisée en informatique.
 En particulier, les lettres minuscules et majuscules peuvent être différenciées grâce au point 7.
@@ -718,8 +1292,43 @@
  …
 Cependant, il n’est pas toujours bien adapté à la lecture. Louis Braille avait en effet travaillé sur la taille de la cellule braille à six points afin qu’elle soit repérable tactilement par la pulpe de l’index sans avoir à le déplacer sur la feuille.
 Or, avec deux points en plus, cette cellule devient trop haute pour une identification rapide par l’index. De plus, la lettre l minuscule (points 1-2-3) et la lettre L majuscule (points 1-2-3-7) provoquent des confusions car il devient difficile de repérer s’il y a trois ou quatre points en hauteur.
-Braille mathématique
-La notation mathématique utilise une représentation spatiale de l’information. En braille, l’information est toujours linéarisée, aussi a-t-on besoin d’une codification spécifique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Braille</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Braille</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Dérivés du braille</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Braille mathématique</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La notation mathématique utilise une représentation spatiale de l’information. En braille, l’information est toujours linéarisée, aussi a-t-on besoin d’une codification spécifique.
 Ce code a varié dans le temps. Depuis le 1er septembre 2007, c’est la notation mathématique approuvée par la Commission pour l’Évolution du Braille Français lors de sa réunion plénière du 16 octobre 2006 qui est applicable.
 De la même façon que sur une calculatrice scientifique standard, le braille mathématique codifie de façon linaire toutes formules mathématiques. Il arrive donc fréquemment qu’une formule visuellement simple devienne très complexe en braille.
 Ainsi,
@@ -781,8 +1390,43 @@
 Toutefois, il reste très difficile de manipuler des calculs complexes en braille. Dans le premier exemple, il n’est pas évident pour un aveugle de repérer la simplification par 2.
 Pour les matrices et tableaux de variation de fonction, afin de faciliter la lecture et quand cela est compatible avec la longueur de la ligne braille, il est possible de représenter ces structures en deux dimensions.
 Les opérations arithmétiques peuvent être manipulées à l'aide d'un cubarithme.
-Braille musical
-Comme pour les mathématiques, la notation musicale « noire » utilise une représentation spatiale de l’information.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Braille</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Braille</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Dérivés du braille</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Braille musical</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme pour les mathématiques, la notation musicale « noire » utilise une représentation spatiale de l’information.
 </t>
         </is>
       </c>
